--- a/output/inference_results/test_sheets/batch_001/test_sheet (2).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (2).xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10~12/L</t>
+          <t>10^12/L</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>fL</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.700</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -792,7 +792,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -820,7 +820,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14.000</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -838,12 +838,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RDW-CV红细胞平均大小</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RDW-CV红细胞平均大小</t>
+          <t>红细胞平均大小</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -861,12 +861,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RDW-SD红细胞平均宽度</t>
+          <t>RDW-SD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RDW-SD红细胞平均宽度</t>
+          <t>红细胞平均宽度</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8.500</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -951,14 +951,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>RH(D)RH血型</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RH(D)RH血型</t>
+          <t>RH血型</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
